--- a/管理/仕様＆企画/仕様/Fight/UI.xlsx
+++ b/管理/仕様＆企画/仕様/Fight/UI.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryose\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryose\Desktop\GitHub Repository\LoveBullet\管理\仕様＆企画\仕様\Fight\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E6C817D-D332-440E-802E-A751D19676FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFB2BD5C-0BCB-49C3-A9D5-4467EEBEB61A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2805" yWindow="3735" windowWidth="25290" windowHeight="12210" activeTab="5" xr2:uid="{60A10C3A-E28F-4DE7-8FB2-80185F5FCD8E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{60A10C3A-E28F-4DE7-8FB2-80185F5FCD8E}"/>
   </bookViews>
   <sheets>
     <sheet name="UI" sheetId="1" r:id="rId1"/>
@@ -27,10 +27,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -938,6 +934,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77749AF3-8801-4156-967F-52B809BBEDB6}">
   <dimension ref="A1"/>
   <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O4" sqref="O4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6D56FC3-3B4C-46F2-ABC9-26C133E455F1}">
+  <dimension ref="A1"/>
+  <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -946,18 +958,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6D56FC3-3B4C-46F2-ABC9-26C133E455F1}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>